--- a/data/climate_data_availability/6158_data.xlsx
+++ b/data/climate_data_availability/6158_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_016B35F67DD3F41B144D4CECE4AAAEC26FEDDB8D" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28580" windowHeight="15280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28580" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="22">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,16 +63,28 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Luki</t>
@@ -80,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,37 +465,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A231"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M224" sqref="M224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="16" max="16" width="9.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -514,13 +530,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6158</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -567,13 +595,16 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6158</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -620,13 +651,16 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6158</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -673,13 +707,16 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6158</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -726,13 +763,16 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6158</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -779,13 +819,16 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6158</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -832,13 +875,16 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6158</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -885,13 +931,16 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6158</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -938,13 +987,16 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6158</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -991,13 +1043,16 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6158</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1044,13 +1099,16 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6158</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1097,13 +1155,16 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6158</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1150,13 +1211,16 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6158</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1203,13 +1267,16 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6158</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1256,13 +1323,16 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6158</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1309,13 +1379,16 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6158</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1362,13 +1435,16 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6158</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -1415,13 +1491,16 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6158</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -1468,13 +1547,16 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6158</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1521,13 +1603,16 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6158</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1574,13 +1659,16 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6158</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -1627,13 +1715,16 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6158</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1680,13 +1771,16 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6158</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1733,13 +1827,16 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6158</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1786,13 +1883,16 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6158</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1839,13 +1939,16 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6158</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1892,13 +1995,16 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6158</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1945,13 +2051,16 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6158</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1998,13 +2107,16 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6158</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -2051,13 +2163,16 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6158</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -2104,13 +2219,16 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6158</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2157,13 +2275,16 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6158</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -2210,13 +2331,16 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6158</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -2263,13 +2387,16 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6158</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -2316,13 +2443,16 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6158</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2369,13 +2499,16 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6158</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2422,13 +2555,16 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6158</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2475,13 +2611,16 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6158</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2528,13 +2667,16 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6158</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -2581,13 +2723,16 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6158</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2634,13 +2779,16 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6158</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -2687,13 +2835,16 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6158</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -2740,13 +2891,16 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6158</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -2793,13 +2947,16 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6158</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -2846,13 +3003,16 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6158</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -2899,13 +3059,16 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6158</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -2952,13 +3115,16 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6158</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -3005,13 +3171,16 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6158</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -3058,13 +3227,16 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6158</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3111,13 +3283,16 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6158</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3164,13 +3339,16 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6158</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3217,13 +3395,16 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6158</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3270,13 +3451,16 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6158</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3323,13 +3507,16 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6158</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3376,13 +3563,16 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6158</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>12</v>
@@ -3429,13 +3619,16 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6158</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -3482,13 +3675,16 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6158</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -3535,13 +3731,16 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6158</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -3588,13 +3787,16 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6158</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -3641,13 +3843,16 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6158</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -3694,13 +3899,16 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6158</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -3747,13 +3955,16 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6158</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -3800,13 +4011,16 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6158</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -3853,13 +4067,16 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6158</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3906,13 +4123,16 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6158</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3959,13 +4179,16 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6158</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4012,13 +4235,16 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6158</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -4065,13 +4291,16 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6158</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -4118,13 +4347,16 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6158</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -4171,13 +4403,16 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6158</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -4224,13 +4459,16 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6158</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -4277,13 +4515,16 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6158</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -4330,13 +4571,16 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6158</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -4383,13 +4627,16 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6158</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -4436,13 +4683,16 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6158</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -4489,13 +4739,16 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6158</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -4542,13 +4795,16 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6158</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4595,13 +4851,16 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6158</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4648,13 +4907,16 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6158</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -4701,13 +4963,16 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6158</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -4754,13 +5019,16 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6158</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -4807,13 +5075,16 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>6158</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -4860,13 +5131,16 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>6158</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -4913,13 +5187,16 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>6158</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -4966,13 +5243,16 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>6158</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5019,13 +5299,16 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>6158</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -5072,13 +5355,16 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>6158</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -5125,13 +5411,16 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>6158</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -5178,13 +5467,16 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>6158</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -5231,13 +5523,16 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>6158</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5284,13 +5579,16 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>6158</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -5337,13 +5635,16 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>6158</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>11</v>
@@ -5390,13 +5691,16 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>6158</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -5443,13 +5747,16 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>6158</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -5496,13 +5803,16 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>6158</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -5549,13 +5859,16 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>6158</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -5602,13 +5915,16 @@
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>6158</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -5655,13 +5971,16 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>6158</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -5708,13 +6027,16 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>6158</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -5761,13 +6083,16 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>6158</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -5814,13 +6139,16 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>6158</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -5867,13 +6195,16 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>6158</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5920,13 +6251,16 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>6158</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>12</v>
@@ -5973,13 +6307,16 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>6158</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>11</v>
@@ -6026,13 +6363,16 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>6158</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -6079,13 +6419,16 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>6158</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -6132,13 +6475,16 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>6158</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -6185,13 +6531,16 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>6158</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -6238,13 +6587,16 @@
       <c r="Q109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>6158</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -6291,13 +6643,16 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>6158</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -6344,13 +6699,16 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>6158</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -6397,13 +6755,16 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>6158</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -6450,13 +6811,16 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>6158</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -6503,13 +6867,16 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>6158</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6556,13 +6923,16 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>6158</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>12</v>
@@ -6609,13 +6979,16 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>6158</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>11</v>
@@ -6662,13 +7035,16 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>6158</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -6715,13 +7091,16 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>6158</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -6768,13 +7147,16 @@
       <c r="Q119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>6158</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C120">
         <v>8</v>
@@ -6821,13 +7203,16 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>6158</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C121">
         <v>7</v>
@@ -6874,13 +7259,16 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>6158</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -6927,13 +7315,16 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>6158</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -6980,13 +7371,16 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>6158</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -7033,13 +7427,16 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>6158</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -7086,13 +7483,16 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>6158</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C126">
         <v>8</v>
@@ -7139,13 +7539,16 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>6158</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -7192,13 +7595,16 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>6158</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -7245,13 +7651,16 @@
       <c r="Q128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>6158</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -7298,13 +7707,16 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>6158</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -7351,13 +7763,16 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>6158</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -7404,13 +7819,16 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>6158</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -7457,13 +7875,16 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>6158</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7510,13 +7931,16 @@
       <c r="Q133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>6158</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -7563,13 +7987,16 @@
       <c r="Q134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>6158</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>11</v>
@@ -7616,13 +8043,16 @@
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>6158</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C136">
         <v>10</v>
@@ -7669,13 +8099,16 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>6158</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>9</v>
@@ -7722,13 +8155,16 @@
       <c r="Q137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>6158</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>8</v>
@@ -7775,13 +8211,16 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>6158</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>7</v>
@@ -7828,13 +8267,16 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>6158</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -7881,13 +8323,16 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>6158</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -7934,13 +8379,16 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>6158</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -7987,13 +8435,16 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>6158</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -8040,13 +8491,16 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>6158</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -8093,13 +8547,16 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="R144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>6158</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -8146,13 +8603,16 @@
       <c r="Q145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="R145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>6158</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C146">
         <v>12</v>
@@ -8199,13 +8659,16 @@
       <c r="Q146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="R146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>6158</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>11</v>
@@ -8252,13 +8715,16 @@
       <c r="Q147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="R147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>6158</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C148">
         <v>10</v>
@@ -8305,13 +8771,16 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="R148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>6158</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -8358,13 +8827,16 @@
       <c r="Q149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="R149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>6158</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C150">
         <v>8</v>
@@ -8411,13 +8883,16 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>6158</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C151">
         <v>7</v>
@@ -8464,13 +8939,16 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="R151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>6158</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -8517,13 +8995,16 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17">
+      <c r="R152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>6158</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -8570,13 +9051,16 @@
       <c r="Q153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="R153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>6158</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -8623,13 +9107,16 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="R154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>6158</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -8676,13 +9163,16 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="R155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156">
         <v>6158</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -8729,13 +9219,16 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="R156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157">
         <v>6158</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -8782,13 +9275,16 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158">
         <v>6158</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>12</v>
@@ -8835,13 +9331,16 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>6158</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>11</v>
@@ -8888,13 +9387,16 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160">
         <v>6158</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -8941,13 +9443,16 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
+      <c r="R160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161">
         <v>6158</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C161">
         <v>9</v>
@@ -8994,13 +9499,16 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17">
+      <c r="R161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162">
         <v>6158</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -9047,13 +9555,16 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17">
+      <c r="R162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163">
         <v>6158</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -9100,13 +9611,16 @@
       <c r="Q163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164">
         <v>6158</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C164">
         <v>6</v>
@@ -9153,13 +9667,16 @@
       <c r="Q164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="R164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165">
         <v>6158</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C165">
         <v>11</v>
@@ -9206,13 +9723,16 @@
       <c r="Q165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17">
+      <c r="R165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166">
         <v>6158</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C166">
         <v>10</v>
@@ -9259,13 +9779,16 @@
       <c r="Q166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17">
+      <c r="R166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167">
         <v>6158</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -9312,13 +9835,16 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17">
+      <c r="R167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168">
         <v>6158</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C168">
         <v>8</v>
@@ -9365,13 +9891,16 @@
       <c r="Q168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17">
+      <c r="R168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169">
         <v>6158</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -9418,13 +9947,16 @@
       <c r="Q169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="R169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170">
         <v>6158</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -9471,13 +10003,16 @@
       <c r="Q170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:17">
+      <c r="R170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171">
         <v>6158</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C171">
         <v>5</v>
@@ -9524,13 +10059,16 @@
       <c r="Q171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:17">
+      <c r="R171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172">
         <v>6158</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -9577,13 +10115,16 @@
       <c r="Q172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17">
+      <c r="R172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173">
         <v>6158</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -9630,13 +10171,16 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17">
+      <c r="R173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174">
         <v>6158</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -9683,13 +10227,16 @@
       <c r="Q174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17">
+      <c r="R174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175">
         <v>6158</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -9736,13 +10283,16 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17">
+      <c r="R175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176">
         <v>6158</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -9789,13 +10339,16 @@
       <c r="Q176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:17">
+      <c r="R176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177">
         <v>6158</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -9842,13 +10395,16 @@
       <c r="Q177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:17">
+      <c r="R177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178">
         <v>6158</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C178">
         <v>10</v>
@@ -9895,13 +10451,16 @@
       <c r="Q178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:17">
+      <c r="R178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179">
         <v>6158</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C179">
         <v>9</v>
@@ -9948,13 +10507,16 @@
       <c r="Q179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:17">
+      <c r="R179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180">
         <v>6158</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -10001,13 +10563,16 @@
       <c r="Q180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:17">
+      <c r="R180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181">
         <v>6158</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C181">
         <v>7</v>
@@ -10054,13 +10619,16 @@
       <c r="Q181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:17">
+      <c r="R181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182">
         <v>6158</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C182">
         <v>6</v>
@@ -10107,13 +10675,16 @@
       <c r="Q182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="R182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183">
         <v>6158</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -10160,13 +10731,16 @@
       <c r="Q183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:17">
+      <c r="R183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184">
         <v>6158</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C184">
         <v>4</v>
@@ -10213,13 +10787,16 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:17">
+      <c r="R184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185">
         <v>6158</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C185">
         <v>3</v>
@@ -10266,13 +10843,16 @@
       <c r="Q185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:17">
+      <c r="R185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186">
         <v>6158</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -10319,13 +10899,16 @@
       <c r="Q186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:17">
+      <c r="R186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187">
         <v>6158</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -10372,13 +10955,16 @@
       <c r="Q187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:17">
+      <c r="R187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188">
         <v>6158</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C188">
         <v>12</v>
@@ -10425,13 +11011,16 @@
       <c r="Q188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:17">
+      <c r="R188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189">
         <v>6158</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C189">
         <v>11</v>
@@ -10478,13 +11067,16 @@
       <c r="Q189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:17">
+      <c r="R189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190">
         <v>6158</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C190">
         <v>10</v>
@@ -10531,13 +11123,16 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17">
+      <c r="R190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191">
         <v>6158</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -10584,13 +11179,16 @@
       <c r="Q191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:17">
+      <c r="R191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192">
         <v>6158</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C192">
         <v>8</v>
@@ -10637,13 +11235,16 @@
       <c r="Q192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:17">
+      <c r="R192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193">
         <v>6158</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C193">
         <v>7</v>
@@ -10690,13 +11291,16 @@
       <c r="Q193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:17">
+      <c r="R193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194">
         <v>6158</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -10743,13 +11347,16 @@
       <c r="Q194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:17">
+      <c r="R194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195">
         <v>6158</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C195">
         <v>5</v>
@@ -10796,13 +11403,16 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17">
+      <c r="R195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196">
         <v>6158</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -10849,13 +11459,16 @@
       <c r="Q196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:17">
+      <c r="R196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197">
         <v>6158</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -10902,13 +11515,16 @@
       <c r="Q197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:17">
+      <c r="R197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198">
         <v>6158</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -10955,13 +11571,16 @@
       <c r="Q198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17">
+      <c r="R198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199">
         <v>6158</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -11008,13 +11627,16 @@
       <c r="Q199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17">
+      <c r="R199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200">
         <v>6158</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C200">
         <v>12</v>
@@ -11061,13 +11683,16 @@
       <c r="Q200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17">
+      <c r="R200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201">
         <v>6158</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C201">
         <v>11</v>
@@ -11114,13 +11739,16 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17">
+      <c r="R201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202">
         <v>6158</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C202">
         <v>10</v>
@@ -11167,13 +11795,16 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17">
+      <c r="R202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203">
         <v>6158</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C203">
         <v>9</v>
@@ -11220,13 +11851,16 @@
       <c r="Q203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:17">
+      <c r="R203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204">
         <v>6158</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C204">
         <v>8</v>
@@ -11273,13 +11907,16 @@
       <c r="Q204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:17">
+      <c r="R204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205">
         <v>6158</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C205">
         <v>7</v>
@@ -11326,13 +11963,16 @@
       <c r="Q205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:17">
+      <c r="R205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206">
         <v>6158</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -11379,13 +12019,16 @@
       <c r="Q206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:17">
+      <c r="R206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207">
         <v>6158</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C207">
         <v>5</v>
@@ -11432,13 +12075,16 @@
       <c r="Q207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:17">
+      <c r="R207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208">
         <v>6158</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C208">
         <v>4</v>
@@ -11485,13 +12131,16 @@
       <c r="Q208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:17">
+      <c r="R208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209">
         <v>6158</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -11538,13 +12187,16 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17">
+      <c r="R209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210">
         <v>6158</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -11591,13 +12243,16 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17">
+      <c r="R210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211">
         <v>6158</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -11644,13 +12299,16 @@
       <c r="Q211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:17">
+      <c r="R211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212">
         <v>6158</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C212">
         <v>12</v>
@@ -11697,13 +12355,16 @@
       <c r="Q212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:17">
+      <c r="R212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213">
         <v>6158</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C213">
         <v>11</v>
@@ -11750,13 +12411,16 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17">
+      <c r="R213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214">
         <v>6158</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C214">
         <v>10</v>
@@ -11803,13 +12467,16 @@
       <c r="Q214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:17">
+      <c r="R214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215">
         <v>6158</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -11856,13 +12523,16 @@
       <c r="Q215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:17">
+      <c r="R215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216">
         <v>6158</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C216">
         <v>8</v>
@@ -11909,13 +12579,16 @@
       <c r="Q216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:17">
+      <c r="R216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217">
         <v>6158</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C217">
         <v>7</v>
@@ -11962,13 +12635,16 @@
       <c r="Q217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:17">
+      <c r="R217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218">
         <v>6158</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C218">
         <v>6</v>
@@ -12015,13 +12691,16 @@
       <c r="Q218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:17">
+      <c r="R218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219">
         <v>6158</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C219">
         <v>5</v>
@@ -12068,13 +12747,16 @@
       <c r="Q219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:17">
+      <c r="R219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220">
         <v>6158</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -12121,13 +12803,16 @@
       <c r="Q220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:17">
+      <c r="R220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221">
         <v>6158</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -12174,13 +12859,16 @@
       <c r="Q221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:17">
+      <c r="R221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222">
         <v>6158</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -12227,13 +12915,16 @@
       <c r="Q222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:17">
+      <c r="R222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223">
         <v>6158</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -12280,13 +12971,16 @@
       <c r="Q223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:17">
+      <c r="R223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224">
         <v>6158</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>12</v>
@@ -12333,13 +13027,16 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17">
+      <c r="R224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225">
         <v>6158</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C225">
         <v>11</v>
@@ -12386,13 +13083,16 @@
       <c r="Q225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:17">
+      <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226">
         <v>6158</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>10</v>
@@ -12439,13 +13139,16 @@
       <c r="Q226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:17">
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227">
         <v>6158</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -12492,13 +13195,16 @@
       <c r="Q227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:17">
+      <c r="R227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228">
         <v>6158</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C228">
         <v>8</v>
@@ -12545,13 +13251,16 @@
       <c r="Q228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:17">
+      <c r="R228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229">
         <v>6158</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C229">
         <v>7</v>
@@ -12598,13 +13307,16 @@
       <c r="Q229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:17">
+      <c r="R229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230">
         <v>6158</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>6</v>
@@ -12651,13 +13363,16 @@
       <c r="Q230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:17">
+      <c r="R230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231">
         <v>6158</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -12702,6 +13417,9 @@
         <v>0</v>
       </c>
       <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
         <v>0</v>
       </c>
     </row>
@@ -12717,12 +13435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12734,12 +13452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
